--- a/input/raw_data/bias_assessment/case_report_bias_data_end.xlsx
+++ b/input/raw_data/bias_assessment/case_report_bias_data_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bias_assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{20FA0B40-5682-B541-BDC0-9F5A6B0B2DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F847DA07-B564-C74A-B4F2-64867F38F82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20580" windowHeight="12240" xr2:uid="{0EC282F7-924A-5B47-8692-5C057716A3B4}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="233">
   <si>
     <t>Study_ID</t>
   </si>
@@ -83,6 +83,642 @@
   </si>
   <si>
     <t>No comment.</t>
+  </si>
+  <si>
+    <t>Doesn't describe complications or elaborate much on outcome, despite patient undergoing major abdominal surgery.</t>
+  </si>
+  <si>
+    <t>Patient_ID</t>
+  </si>
+  <si>
+    <t>39-001</t>
+  </si>
+  <si>
+    <t>51-001</t>
+  </si>
+  <si>
+    <t>51-002</t>
+  </si>
+  <si>
+    <t>51-003</t>
+  </si>
+  <si>
+    <t>51-004</t>
+  </si>
+  <si>
+    <t>51-005</t>
+  </si>
+  <si>
+    <t>54-001</t>
+  </si>
+  <si>
+    <t>60-001</t>
+  </si>
+  <si>
+    <t>61-001</t>
+  </si>
+  <si>
+    <t>85-001</t>
+  </si>
+  <si>
+    <t>92-001</t>
+  </si>
+  <si>
+    <t>99-001</t>
+  </si>
+  <si>
+    <t>101-001</t>
+  </si>
+  <si>
+    <t>101-002</t>
+  </si>
+  <si>
+    <t>101-003</t>
+  </si>
+  <si>
+    <t>101-004</t>
+  </si>
+  <si>
+    <t>101-005</t>
+  </si>
+  <si>
+    <t>113-001</t>
+  </si>
+  <si>
+    <t>138-001</t>
+  </si>
+  <si>
+    <t>148-001</t>
+  </si>
+  <si>
+    <t>168-001</t>
+  </si>
+  <si>
+    <t>171-001</t>
+  </si>
+  <si>
+    <t>172-001</t>
+  </si>
+  <si>
+    <t>175-001</t>
+  </si>
+  <si>
+    <t>175-002</t>
+  </si>
+  <si>
+    <t>182-001</t>
+  </si>
+  <si>
+    <t>182-002</t>
+  </si>
+  <si>
+    <t>195-001</t>
+  </si>
+  <si>
+    <t>214-001</t>
+  </si>
+  <si>
+    <t>217-001</t>
+  </si>
+  <si>
+    <t>219-001</t>
+  </si>
+  <si>
+    <t>226-001</t>
+  </si>
+  <si>
+    <t>231-001</t>
+  </si>
+  <si>
+    <t>238-001</t>
+  </si>
+  <si>
+    <t>260-001</t>
+  </si>
+  <si>
+    <t>261-001</t>
+  </si>
+  <si>
+    <t>273-001</t>
+  </si>
+  <si>
+    <t>274-001</t>
+  </si>
+  <si>
+    <t>278-001</t>
+  </si>
+  <si>
+    <t>292-001</t>
+  </si>
+  <si>
+    <t>300-001</t>
+  </si>
+  <si>
+    <t>311-001</t>
+  </si>
+  <si>
+    <t>314-001</t>
+  </si>
+  <si>
+    <t>319-001</t>
+  </si>
+  <si>
+    <t>322-001</t>
+  </si>
+  <si>
+    <t>327-001</t>
+  </si>
+  <si>
+    <t>328-001</t>
+  </si>
+  <si>
+    <t>333-001</t>
+  </si>
+  <si>
+    <t>345-001</t>
+  </si>
+  <si>
+    <t>345-002</t>
+  </si>
+  <si>
+    <t>345-003</t>
+  </si>
+  <si>
+    <t>348-001</t>
+  </si>
+  <si>
+    <t>349-001</t>
+  </si>
+  <si>
+    <t>353-001</t>
+  </si>
+  <si>
+    <t>356-001</t>
+  </si>
+  <si>
+    <t>359-001</t>
+  </si>
+  <si>
+    <t>360-001</t>
+  </si>
+  <si>
+    <t>369-001</t>
+  </si>
+  <si>
+    <t>370-001</t>
+  </si>
+  <si>
+    <t>373-001</t>
+  </si>
+  <si>
+    <t>377-001</t>
+  </si>
+  <si>
+    <t>377-002</t>
+  </si>
+  <si>
+    <t>377-003</t>
+  </si>
+  <si>
+    <t>377-004</t>
+  </si>
+  <si>
+    <t>380-001</t>
+  </si>
+  <si>
+    <t>382-001</t>
+  </si>
+  <si>
+    <t>382-002</t>
+  </si>
+  <si>
+    <t>386-001</t>
+  </si>
+  <si>
+    <t>399-001</t>
+  </si>
+  <si>
+    <t>402-001</t>
+  </si>
+  <si>
+    <t>405-001</t>
+  </si>
+  <si>
+    <t>406-001</t>
+  </si>
+  <si>
+    <t>409-001</t>
+  </si>
+  <si>
+    <t>414-001</t>
+  </si>
+  <si>
+    <t>416-001</t>
+  </si>
+  <si>
+    <t>421-001</t>
+  </si>
+  <si>
+    <t>421-002</t>
+  </si>
+  <si>
+    <t>421-003</t>
+  </si>
+  <si>
+    <t>421-004</t>
+  </si>
+  <si>
+    <t>421-005</t>
+  </si>
+  <si>
+    <t>431-001</t>
+  </si>
+  <si>
+    <t>439-001</t>
+  </si>
+  <si>
+    <t>443-001</t>
+  </si>
+  <si>
+    <t>443-002</t>
+  </si>
+  <si>
+    <t>443-003</t>
+  </si>
+  <si>
+    <t>451-001</t>
+  </si>
+  <si>
+    <t>456-001</t>
+  </si>
+  <si>
+    <t>460-001</t>
+  </si>
+  <si>
+    <t>465-001</t>
+  </si>
+  <si>
+    <t>465-002</t>
+  </si>
+  <si>
+    <t>465-003</t>
+  </si>
+  <si>
+    <t>465-004</t>
+  </si>
+  <si>
+    <t>465-005</t>
+  </si>
+  <si>
+    <t>465-006</t>
+  </si>
+  <si>
+    <t>465-007</t>
+  </si>
+  <si>
+    <t>471-001</t>
+  </si>
+  <si>
+    <t>475-001</t>
+  </si>
+  <si>
+    <t>476-001</t>
+  </si>
+  <si>
+    <t>482-001</t>
+  </si>
+  <si>
+    <t>483-001</t>
+  </si>
+  <si>
+    <t>484-001</t>
+  </si>
+  <si>
+    <t>485-001</t>
+  </si>
+  <si>
+    <t>495-001</t>
+  </si>
+  <si>
+    <t>498-001</t>
+  </si>
+  <si>
+    <t>499-001</t>
+  </si>
+  <si>
+    <t>504-001</t>
+  </si>
+  <si>
+    <t>504-002</t>
+  </si>
+  <si>
+    <t>504-003</t>
+  </si>
+  <si>
+    <t>504-004</t>
+  </si>
+  <si>
+    <t>504-005</t>
+  </si>
+  <si>
+    <t>504-006</t>
+  </si>
+  <si>
+    <t>504-007</t>
+  </si>
+  <si>
+    <t>504-008</t>
+  </si>
+  <si>
+    <t>504-009</t>
+  </si>
+  <si>
+    <t>504-010</t>
+  </si>
+  <si>
+    <t>507-001</t>
+  </si>
+  <si>
+    <t>507-002</t>
+  </si>
+  <si>
+    <t>532-001</t>
+  </si>
+  <si>
+    <t>535-001</t>
+  </si>
+  <si>
+    <t>536-001</t>
+  </si>
+  <si>
+    <t>536-002</t>
+  </si>
+  <si>
+    <t>536-003</t>
+  </si>
+  <si>
+    <t>539-001</t>
+  </si>
+  <si>
+    <t>539-002</t>
+  </si>
+  <si>
+    <t>539-003</t>
+  </si>
+  <si>
+    <t>539-004</t>
+  </si>
+  <si>
+    <t>539-005</t>
+  </si>
+  <si>
+    <t>539-006</t>
+  </si>
+  <si>
+    <t>540-001</t>
+  </si>
+  <si>
+    <t>540-002</t>
+  </si>
+  <si>
+    <t>540-003</t>
+  </si>
+  <si>
+    <t>540-004</t>
+  </si>
+  <si>
+    <t>540-005</t>
+  </si>
+  <si>
+    <t>543-001</t>
+  </si>
+  <si>
+    <t>548-001</t>
+  </si>
+  <si>
+    <t>554-001</t>
+  </si>
+  <si>
+    <t>556-001</t>
+  </si>
+  <si>
+    <t>558-001</t>
+  </si>
+  <si>
+    <t>559-001</t>
+  </si>
+  <si>
+    <t>565-001</t>
+  </si>
+  <si>
+    <t>566-001</t>
+  </si>
+  <si>
+    <t>567-001</t>
+  </si>
+  <si>
+    <t>568-001</t>
+  </si>
+  <si>
+    <t>572-001</t>
+  </si>
+  <si>
+    <t>574-001</t>
+  </si>
+  <si>
+    <t>576-001</t>
+  </si>
+  <si>
+    <t>578-001</t>
+  </si>
+  <si>
+    <t>579-001</t>
+  </si>
+  <si>
+    <t>582-001</t>
+  </si>
+  <si>
+    <t>583-001</t>
+  </si>
+  <si>
+    <t>583-002</t>
+  </si>
+  <si>
+    <t>583-003</t>
+  </si>
+  <si>
+    <t>583-004</t>
+  </si>
+  <si>
+    <t>583-005</t>
+  </si>
+  <si>
+    <t>583-006</t>
+  </si>
+  <si>
+    <t>583-007</t>
+  </si>
+  <si>
+    <t>583-008</t>
+  </si>
+  <si>
+    <t>583-009</t>
+  </si>
+  <si>
+    <t>583-010</t>
+  </si>
+  <si>
+    <t>583-011</t>
+  </si>
+  <si>
+    <t>586-001</t>
+  </si>
+  <si>
+    <t>589-001</t>
+  </si>
+  <si>
+    <t>592-001</t>
+  </si>
+  <si>
+    <t>593-001</t>
+  </si>
+  <si>
+    <t>594-001</t>
+  </si>
+  <si>
+    <t>597-001</t>
+  </si>
+  <si>
+    <t>598-001</t>
+  </si>
+  <si>
+    <t>602-001</t>
+  </si>
+  <si>
+    <t>604-001</t>
+  </si>
+  <si>
+    <t>610-001</t>
+  </si>
+  <si>
+    <t>610-002</t>
+  </si>
+  <si>
+    <t>610-003</t>
+  </si>
+  <si>
+    <t>617-001</t>
+  </si>
+  <si>
+    <t>620-001</t>
+  </si>
+  <si>
+    <t>621-001</t>
+  </si>
+  <si>
+    <t>622-001</t>
+  </si>
+  <si>
+    <t>623-001</t>
+  </si>
+  <si>
+    <t>625-001</t>
+  </si>
+  <si>
+    <t>626-001</t>
+  </si>
+  <si>
+    <t>637-001</t>
+  </si>
+  <si>
+    <t>640-001</t>
+  </si>
+  <si>
+    <t>643-001</t>
+  </si>
+  <si>
+    <t>644-001</t>
+  </si>
+  <si>
+    <t>651-001</t>
+  </si>
+  <si>
+    <t>652-001</t>
+  </si>
+  <si>
+    <t>654-001</t>
+  </si>
+  <si>
+    <t>658-001</t>
+  </si>
+  <si>
+    <t>661-001</t>
+  </si>
+  <si>
+    <t>667-001</t>
+  </si>
+  <si>
+    <t>675-001</t>
+  </si>
+  <si>
+    <t>680-001</t>
+  </si>
+  <si>
+    <t>683-001</t>
+  </si>
+  <si>
+    <t>684-001</t>
+  </si>
+  <si>
+    <t>686-001</t>
+  </si>
+  <si>
+    <t>692-001</t>
+  </si>
+  <si>
+    <t>Does not elaborate on medication history or outcomes.</t>
+  </si>
+  <si>
+    <t>Exclude</t>
+  </si>
+  <si>
+    <t>Does not report outcomes or elaborate on physical condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not report current condition, post-intervention condition or harms. </t>
+  </si>
+  <si>
+    <t>Psychiatric case report, describing characteristic behaviour, but not clinical details or outcomes.</t>
+  </si>
+  <si>
+    <t>No real documentation of post-intervention condition or current condition.</t>
+  </si>
+  <si>
+    <t>No detail on timeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although lacking detail on current condition, outcomes of interests described and relevant demographic information. </t>
+  </si>
+  <si>
+    <t>No documentation of outcomes (death, etc.), so exclude.</t>
+  </si>
+  <si>
+    <t>Lacking detail on medical history.</t>
+  </si>
+  <si>
+    <t>Lacking detail on psychiatric diagnosis.</t>
+  </si>
+  <si>
+    <t>Lacks information on demographics, but otherwise all pertinent information included.</t>
+  </si>
+  <si>
+    <t>Lacking in detail, but pertinent data included.</t>
+  </si>
+  <si>
+    <t>Lacks detail on medication and demographic history. No real takeaway lesson.</t>
+  </si>
+  <si>
+    <t>Lacking detail regarding history and condition, but contains all pertinent detail (be it brief).</t>
   </si>
 </sst>
 </file>
@@ -947,68 +1583,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0A2341-8331-D641-B0EC-58DC712F4515}">
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1026,790 +1667,3125 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
       <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>45785</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45786</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45787</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L8" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M8" s="2">
         <v>45785</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
         <v>15</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L9" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M9" s="2">
         <v>45785</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>61</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L10" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M10" s="2">
         <v>45785</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>219</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>219</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>219</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>219</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>113</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>138</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>168</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>171</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>172</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>175</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>175</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>182</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>195</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>214</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>217</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>219</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>226</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>231</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>238</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>260</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>261</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" t="s">
+        <v>16</v>
+      </c>
+      <c r="M37" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>273</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>274</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>278</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>292</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>300</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>311</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" t="s">
+        <v>16</v>
+      </c>
+      <c r="M43" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>314</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>319</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="2">
+        <v>45785</v>
+      </c>
+      <c r="N45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>322</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>327</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>328</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>333</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>345</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>345</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>345</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>348</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>349</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>353</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>356</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>359</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>360</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>369</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>370</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>373</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>377</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>377</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>377</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>377</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>380</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>382</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>382</v>
+      </c>
+      <c r="B68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>386</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>399</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="B70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>402</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>405</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="B72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>406</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>409</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="B74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>414</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="B75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>416</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="B76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>421</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>421</v>
+      </c>
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>421</v>
+      </c>
+      <c r="B79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>421</v>
+      </c>
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>421</v>
+      </c>
+      <c r="B81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>431</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="B82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>439</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="B83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>443</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="B84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>443</v>
+      </c>
+      <c r="B85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>443</v>
+      </c>
+      <c r="B86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>451</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="B87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>456</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="B88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>460</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="B89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>465</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="B90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>465</v>
+      </c>
+      <c r="B91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>465</v>
+      </c>
+      <c r="B92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>465</v>
+      </c>
+      <c r="B93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>465</v>
+      </c>
+      <c r="B94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>465</v>
+      </c>
+      <c r="B95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>465</v>
+      </c>
+      <c r="B96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>471</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="B97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>475</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="B98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>476</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="B99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
         <v>482</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="B100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>483</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="B101" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
         <v>484</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="B102" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
         <v>485</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="B103" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>495</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="B104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
         <v>498</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="B105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
         <v>499</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="B106" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
         <v>504</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="B107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>504</v>
+      </c>
+      <c r="B108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>504</v>
+      </c>
+      <c r="B109" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>504</v>
+      </c>
+      <c r="B110" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>504</v>
+      </c>
+      <c r="B111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>504</v>
+      </c>
+      <c r="B112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>504</v>
+      </c>
+      <c r="B113" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>504</v>
+      </c>
+      <c r="B114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>504</v>
+      </c>
+      <c r="B115" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>504</v>
+      </c>
+      <c r="B116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
         <v>507</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="B117" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>507</v>
+      </c>
+      <c r="B118" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>532</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="B119" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
         <v>535</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="B120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
         <v>536</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="B121" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>536</v>
+      </c>
+      <c r="B122" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>536</v>
+      </c>
+      <c r="B123" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
         <v>539</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="B124" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>539</v>
+      </c>
+      <c r="B125" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>539</v>
+      </c>
+      <c r="B126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>539</v>
+      </c>
+      <c r="B127" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>539</v>
+      </c>
+      <c r="B128" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>539</v>
+      </c>
+      <c r="B129" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
         <v>540</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="B130" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>540</v>
+      </c>
+      <c r="B131" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>540</v>
+      </c>
+      <c r="B132" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>540</v>
+      </c>
+      <c r="B133" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>540</v>
+      </c>
+      <c r="B134" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
         <v>543</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="B135" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
         <v>548</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="B136" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
         <v>554</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="B137" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
         <v>556</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="B138" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
         <v>558</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="B139" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
         <v>559</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="B140" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
         <v>565</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="B141" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
         <v>566</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="B142" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
         <v>567</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="B143" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
         <v>568</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="B144" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
         <v>572</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="B145" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
         <v>574</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="B146" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
         <v>576</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="B147" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
         <v>578</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="B148" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
         <v>579</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="B149" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
         <v>582</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="B150" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
         <v>583</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="B151" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>583</v>
+      </c>
+      <c r="B152" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>583</v>
+      </c>
+      <c r="B153" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>583</v>
+      </c>
+      <c r="B154" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>583</v>
+      </c>
+      <c r="B155" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>583</v>
+      </c>
+      <c r="B156" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>583</v>
+      </c>
+      <c r="B157" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>583</v>
+      </c>
+      <c r="B158" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>583</v>
+      </c>
+      <c r="B159" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>583</v>
+      </c>
+      <c r="B160" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>583</v>
+      </c>
+      <c r="B161" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
         <v>586</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="B162" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
         <v>589</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="B163" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
         <v>592</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="B164" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
         <v>593</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="B165" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
         <v>594</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="B166" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
         <v>597</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="B167" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
         <v>598</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="B168" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
         <v>602</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="B169" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
         <v>604</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="B170" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
         <v>610</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="B171" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>610</v>
+      </c>
+      <c r="B172" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>610</v>
+      </c>
+      <c r="B173" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
         <v>617</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="B174" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
         <v>620</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="B175" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
         <v>621</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="B176" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
         <v>622</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="B177" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
         <v>623</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="B178" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
         <v>625</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="B179" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
         <v>626</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="B180" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
         <v>637</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="B181" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
         <v>640</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="B182" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
         <v>643</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="B183" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
         <v>644</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="B184" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
         <v>651</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="B185" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186">
         <v>652</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="B186" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
         <v>654</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="B187" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
         <v>658</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127">
+      <c r="B188" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
         <v>661</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128">
+      <c r="B189" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
         <v>667</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="B190" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
         <v>675</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="B191" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
         <v>680</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="B192" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
         <v>683</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="B193" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
         <v>684</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="B194" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
         <v>686</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="B195" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
         <v>692</v>
+      </c>
+      <c r="B196" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/input/raw_data/bias_assessment/case_report_bias_data_end.xlsx
+++ b/input/raw_data/bias_assessment/case_report_bias_data_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bias_assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F847DA07-B564-C74A-B4F2-64867F38F82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{25EB82DD-8C20-AC41-AF3C-5B5F2889F71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20580" windowHeight="12240" xr2:uid="{0EC282F7-924A-5B47-8692-5C057716A3B4}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="243">
   <si>
     <t>Study_ID</t>
   </si>
@@ -719,6 +719,36 @@
   </si>
   <si>
     <t>Lacking detail regarding history and condition, but contains all pertinent detail (be it brief).</t>
+  </si>
+  <si>
+    <t>Lacking some detail on physical and laborotatory investigations, but good psychiatric and motivational history provided.</t>
+  </si>
+  <si>
+    <t>Lacks detail on psychiatric comorbidities ("mentally abnormal woman").</t>
+  </si>
+  <si>
+    <t>Minimal detail on 'psychological abnormalities'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detailed paediatric case with exploration of motivation. </t>
+  </si>
+  <si>
+    <t>Lost to follow-up, but did not represent with complications at this department. Authors recognise that most ingestions are uncomplicated.</t>
+  </si>
+  <si>
+    <t>Missing demographic data, timeline of ingestion, motivation and diagnostics.</t>
+  </si>
+  <si>
+    <t>Lacks detail on physiogical assessment and reporting of outcome beyond the point of surgery.</t>
+  </si>
+  <si>
+    <t>Unclear</t>
+  </si>
+  <si>
+    <t>Lacks physiological observations.</t>
+  </si>
+  <si>
+    <t>Doesn't give information on individual ingestions with links to outcomes for each ingestion.</t>
   </si>
 </sst>
 </file>
@@ -1586,8 +1616,8 @@
   <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46:F46"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3587,6 +3617,42 @@
       <c r="B46" t="s">
         <v>67</v>
       </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N46" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -3595,6 +3661,42 @@
       <c r="B47" t="s">
         <v>68</v>
       </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N47" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -3603,272 +3705,1364 @@
       <c r="B48" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>333</v>
       </c>
       <c r="B49" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s">
+        <v>15</v>
+      </c>
+      <c r="L49" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>345</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>345</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>345</v>
       </c>
       <c r="B52" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>348</v>
       </c>
       <c r="B53" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>349</v>
       </c>
       <c r="B54" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L54" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>353</v>
       </c>
       <c r="B55" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>356</v>
       </c>
       <c r="B56" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>359</v>
       </c>
       <c r="B57" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>360</v>
       </c>
       <c r="B58" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>369</v>
       </c>
       <c r="B59" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>370</v>
       </c>
       <c r="B60" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>373</v>
       </c>
       <c r="B61" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" t="s">
+        <v>15</v>
+      </c>
+      <c r="L61" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>377</v>
       </c>
       <c r="B62" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" t="s">
+        <v>219</v>
+      </c>
+      <c r="L62" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N62" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>377</v>
       </c>
       <c r="B63" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" t="s">
+        <v>219</v>
+      </c>
+      <c r="L63" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N63" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>377</v>
       </c>
       <c r="B64" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" t="s">
+        <v>219</v>
+      </c>
+      <c r="L64" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N64" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>377</v>
       </c>
       <c r="B65" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" t="s">
+        <v>219</v>
+      </c>
+      <c r="L65" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>380</v>
       </c>
       <c r="B66" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" t="s">
+        <v>219</v>
+      </c>
+      <c r="L66" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>382</v>
       </c>
       <c r="B67" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" t="s">
+        <v>15</v>
+      </c>
+      <c r="L67" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>382</v>
       </c>
       <c r="B68" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" t="s">
+        <v>15</v>
+      </c>
+      <c r="L68" t="s">
+        <v>16</v>
+      </c>
+      <c r="M68" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>386</v>
       </c>
       <c r="B69" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" t="s">
+        <v>15</v>
+      </c>
+      <c r="L69" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>399</v>
       </c>
       <c r="B70" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" t="s">
+        <v>240</v>
+      </c>
+      <c r="L70" t="s">
+        <v>16</v>
+      </c>
+      <c r="M70" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>402</v>
       </c>
       <c r="B71" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" t="s">
+        <v>15</v>
+      </c>
+      <c r="L71" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N71" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>405</v>
       </c>
       <c r="B72" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" t="s">
+        <v>15</v>
+      </c>
+      <c r="L72" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>406</v>
       </c>
       <c r="B73" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" t="s">
+        <v>219</v>
+      </c>
+      <c r="L73" t="s">
+        <v>16</v>
+      </c>
+      <c r="M73" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N73" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>409</v>
       </c>
       <c r="B74" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74" t="s">
+        <v>13</v>
+      </c>
+      <c r="K74" t="s">
+        <v>15</v>
+      </c>
+      <c r="L74" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>414</v>
       </c>
       <c r="B75" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" t="s">
+        <v>15</v>
+      </c>
+      <c r="L75" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>416</v>
       </c>
       <c r="B76" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" t="s">
+        <v>15</v>
+      </c>
+      <c r="L76" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>421</v>
       </c>
       <c r="B77" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>421</v>
       </c>
       <c r="B78" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>421</v>
       </c>
       <c r="B79" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>421</v>
       </c>
       <c r="B80" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>421</v>
       </c>
       <c r="B81" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>431</v>
       </c>
@@ -3876,7 +5070,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>439</v>
       </c>
@@ -3884,7 +5078,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>443</v>
       </c>
@@ -3892,7 +5086,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>443</v>
       </c>
@@ -3900,7 +5094,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>443</v>
       </c>
@@ -3908,7 +5102,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>451</v>
       </c>
@@ -3916,7 +5110,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>456</v>
       </c>
@@ -3924,7 +5118,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>460</v>
       </c>
@@ -3932,7 +5126,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>465</v>
       </c>
@@ -3940,7 +5134,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>465</v>
       </c>
@@ -3948,7 +5142,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>465</v>
       </c>
@@ -3956,7 +5150,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>465</v>
       </c>
@@ -3964,7 +5158,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>465</v>
       </c>
@@ -3972,7 +5166,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>465</v>
       </c>
@@ -3980,7 +5174,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>465</v>
       </c>

--- a/input/raw_data/bias_assessment/case_report_bias_data_end.xlsx
+++ b/input/raw_data/bias_assessment/case_report_bias_data_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bias_assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{25EB82DD-8C20-AC41-AF3C-5B5F2889F71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{258A8366-0577-6F40-8705-2966E626FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20580" windowHeight="12240" xr2:uid="{0EC282F7-924A-5B47-8692-5C057716A3B4}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="267">
   <si>
     <t>Study_ID</t>
   </si>
@@ -749,6 +749,78 @@
   </si>
   <si>
     <t>Doesn't give information on individual ingestions with links to outcomes for each ingestion.</t>
+  </si>
+  <si>
+    <t>Poor timeline, and lacking details of condition but relevant information recorded.</t>
+  </si>
+  <si>
+    <t>Lacks detail on current condition and diagnostics, but has relevant outcomes measured.</t>
+  </si>
+  <si>
+    <t>Radiological case study, but includes relevant information.</t>
+  </si>
+  <si>
+    <t>No follow-up documented after conservative management.</t>
+  </si>
+  <si>
+    <t>Lacks detail regarding anaesthesia.</t>
+  </si>
+  <si>
+    <t>Lost to follow-up after ingesting pen. Likely to have sequalae in the future than not documented.</t>
+  </si>
+  <si>
+    <t>Lacks detail on condition after surgery, but relevant outcomes recorded. Could have died following and wouldn't be reported here.</t>
+  </si>
+  <si>
+    <t>Lacks details on condition after surgery.</t>
+  </si>
+  <si>
+    <t>Lost to follow-up as escaped ward.</t>
+  </si>
+  <si>
+    <t>Lacks detailed history of timings and medical history, but relevant case data present. Also lacks detail on pre- and post-intervention condition, but suggests patient recovered well as all parts of object removed.</t>
+  </si>
+  <si>
+    <t>Lacking detail on condition and diagnostics.</t>
+  </si>
+  <si>
+    <t>Lacking demographic detail</t>
+  </si>
+  <si>
+    <t>No data on outcome following this ingestion.</t>
+  </si>
+  <si>
+    <t>Lacking data on post-operative condition.</t>
+  </si>
+  <si>
+    <t>Lacking detail on demographic other than 'mentally retarded', but good description of management and outcome.</t>
+  </si>
+  <si>
+    <t>Lacks detail on diagnostics and physical assessment.</t>
+  </si>
+  <si>
+    <t>Referred to outpatient surgery clinic for follow-up, results of which not reported.</t>
+  </si>
+  <si>
+    <t>Lacks detail of physical assessment.</t>
+  </si>
+  <si>
+    <t>Lacks detail of condition after conservative management.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short on detail, but all relevant information available. </t>
+  </si>
+  <si>
+    <t>No autopsy to report cause of death or to prove ingestion of objects.</t>
+  </si>
+  <si>
+    <t>Doesn't report outcome, only surgery.</t>
+  </si>
+  <si>
+    <t>Lacks detail on definitive outcome.</t>
+  </si>
+  <si>
+    <t>Lacking detail on physilogical and laboratory findings, but contains all data relevant to this study (apart from motivation).</t>
   </si>
 </sst>
 </file>
@@ -1613,11 +1685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0A2341-8331-D641-B0EC-58DC712F4515}">
-  <dimension ref="A1:N196"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N151" sqref="N151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4987,11 +5059,35 @@
       <c r="D77" t="s">
         <v>18</v>
       </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
       <c r="G77" t="s">
         <v>13</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" t="s">
+        <v>15</v>
+      </c>
+      <c r="L77" t="s">
+        <v>16</v>
+      </c>
+      <c r="M77" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N77" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -5004,11 +5100,38 @@
       <c r="C78" t="s">
         <v>13</v>
       </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
       <c r="G78" t="s">
         <v>13</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" t="s">
+        <v>15</v>
+      </c>
+      <c r="L78" t="s">
+        <v>16</v>
+      </c>
+      <c r="M78" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N78" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -5021,11 +5144,38 @@
       <c r="C79" t="s">
         <v>13</v>
       </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
       <c r="G79" t="s">
         <v>13</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" t="s">
+        <v>15</v>
+      </c>
+      <c r="L79" t="s">
+        <v>16</v>
+      </c>
+      <c r="M79" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N79" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -5038,14 +5188,41 @@
       <c r="C80" t="s">
         <v>13</v>
       </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
       <c r="G80" t="s">
         <v>13</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" t="s">
+        <v>13</v>
+      </c>
+      <c r="K80" t="s">
+        <v>15</v>
+      </c>
+      <c r="L80" t="s">
+        <v>16</v>
+      </c>
+      <c r="M80" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N80" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>421</v>
       </c>
@@ -5055,566 +5232,3077 @@
       <c r="C81" t="s">
         <v>13</v>
       </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
       <c r="G81" t="s">
         <v>13</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" t="s">
+        <v>15</v>
+      </c>
+      <c r="L81" t="s">
+        <v>16</v>
+      </c>
+      <c r="M81" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N81" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>431</v>
       </c>
       <c r="B82" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" t="s">
+        <v>15</v>
+      </c>
+      <c r="L82" t="s">
+        <v>16</v>
+      </c>
+      <c r="M82" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>439</v>
       </c>
       <c r="B83" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" t="s">
+        <v>15</v>
+      </c>
+      <c r="L83" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>443</v>
       </c>
       <c r="B84" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" t="s">
+        <v>15</v>
+      </c>
+      <c r="L84" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N84" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>443</v>
       </c>
       <c r="B85" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" t="s">
+        <v>15</v>
+      </c>
+      <c r="L85" t="s">
+        <v>16</v>
+      </c>
+      <c r="M85" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N85" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>443</v>
       </c>
       <c r="B86" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" t="s">
+        <v>15</v>
+      </c>
+      <c r="L86" t="s">
+        <v>16</v>
+      </c>
+      <c r="M86" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N86" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>451</v>
       </c>
       <c r="B87" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" t="s">
+        <v>15</v>
+      </c>
+      <c r="L87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M87" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>456</v>
       </c>
       <c r="B88" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" t="s">
+        <v>15</v>
+      </c>
+      <c r="L88" t="s">
+        <v>16</v>
+      </c>
+      <c r="M88" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N88" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>460</v>
       </c>
       <c r="B89" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" t="s">
+        <v>13</v>
+      </c>
+      <c r="K89" t="s">
+        <v>15</v>
+      </c>
+      <c r="L89" t="s">
+        <v>16</v>
+      </c>
+      <c r="M89" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N89" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>465</v>
       </c>
       <c r="B90" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" t="s">
+        <v>15</v>
+      </c>
+      <c r="L90" t="s">
+        <v>16</v>
+      </c>
+      <c r="M90" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N90" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>465</v>
       </c>
       <c r="B91" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" t="s">
+        <v>15</v>
+      </c>
+      <c r="L91" t="s">
+        <v>16</v>
+      </c>
+      <c r="M91" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N91" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>465</v>
       </c>
       <c r="B92" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" t="s">
+        <v>13</v>
+      </c>
+      <c r="K92" t="s">
+        <v>15</v>
+      </c>
+      <c r="L92" t="s">
+        <v>16</v>
+      </c>
+      <c r="M92" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N92" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>465</v>
       </c>
       <c r="B93" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s">
+        <v>13</v>
+      </c>
+      <c r="K93" t="s">
+        <v>219</v>
+      </c>
+      <c r="L93" t="s">
+        <v>16</v>
+      </c>
+      <c r="M93" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N93" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>465</v>
       </c>
       <c r="B94" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" t="s">
+        <v>13</v>
+      </c>
+      <c r="K94" t="s">
+        <v>15</v>
+      </c>
+      <c r="L94" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N94" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>465</v>
       </c>
       <c r="B95" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
+        <v>13</v>
+      </c>
+      <c r="K95" t="s">
+        <v>219</v>
+      </c>
+      <c r="L95" t="s">
+        <v>16</v>
+      </c>
+      <c r="M95" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N95" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>465</v>
       </c>
       <c r="B96" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" t="s">
+        <v>13</v>
+      </c>
+      <c r="K96" t="s">
+        <v>219</v>
+      </c>
+      <c r="L96" t="s">
+        <v>16</v>
+      </c>
+      <c r="M96" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N96" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>471</v>
       </c>
       <c r="B97" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" t="s">
+        <v>13</v>
+      </c>
+      <c r="K97" t="s">
+        <v>15</v>
+      </c>
+      <c r="L97" t="s">
+        <v>16</v>
+      </c>
+      <c r="M97" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N97" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>475</v>
       </c>
       <c r="B98" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" t="s">
+        <v>13</v>
+      </c>
+      <c r="K98" t="s">
+        <v>15</v>
+      </c>
+      <c r="L98" t="s">
+        <v>16</v>
+      </c>
+      <c r="M98" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N98" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>476</v>
       </c>
       <c r="B99" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" t="s">
+        <v>219</v>
+      </c>
+      <c r="L99" t="s">
+        <v>16</v>
+      </c>
+      <c r="M99" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N99" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>482</v>
       </c>
       <c r="B100" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" t="s">
+        <v>13</v>
+      </c>
+      <c r="K100" t="s">
+        <v>15</v>
+      </c>
+      <c r="L100" t="s">
+        <v>16</v>
+      </c>
+      <c r="M100" s="2">
+        <v>45788</v>
+      </c>
+      <c r="N100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>483</v>
       </c>
       <c r="B101" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101" t="s">
+        <v>13</v>
+      </c>
+      <c r="K101" t="s">
+        <v>15</v>
+      </c>
+      <c r="L101" t="s">
+        <v>16</v>
+      </c>
+      <c r="M101" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>484</v>
       </c>
       <c r="B102" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" t="s">
+        <v>13</v>
+      </c>
+      <c r="K102" t="s">
+        <v>15</v>
+      </c>
+      <c r="L102" t="s">
+        <v>16</v>
+      </c>
+      <c r="M102" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>485</v>
       </c>
       <c r="B103" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" t="s">
+        <v>13</v>
+      </c>
+      <c r="K103" t="s">
+        <v>15</v>
+      </c>
+      <c r="L103" t="s">
+        <v>16</v>
+      </c>
+      <c r="M103" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>495</v>
       </c>
       <c r="B104" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" t="s">
+        <v>13</v>
+      </c>
+      <c r="K104" t="s">
+        <v>15</v>
+      </c>
+      <c r="L104" t="s">
+        <v>16</v>
+      </c>
+      <c r="M104" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>498</v>
       </c>
       <c r="B105" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" t="s">
+        <v>15</v>
+      </c>
+      <c r="L105" t="s">
+        <v>16</v>
+      </c>
+      <c r="M105" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N105" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>499</v>
       </c>
       <c r="B106" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" t="s">
+        <v>15</v>
+      </c>
+      <c r="L106" t="s">
+        <v>16</v>
+      </c>
+      <c r="M106" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>504</v>
       </c>
       <c r="B107" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" t="s">
+        <v>13</v>
+      </c>
+      <c r="K107" t="s">
+        <v>15</v>
+      </c>
+      <c r="L107" t="s">
+        <v>16</v>
+      </c>
+      <c r="M107" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N107" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>504</v>
       </c>
       <c r="B108" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" t="s">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108" t="s">
+        <v>13</v>
+      </c>
+      <c r="K108" t="s">
+        <v>15</v>
+      </c>
+      <c r="L108" t="s">
+        <v>16</v>
+      </c>
+      <c r="M108" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N108" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>504</v>
       </c>
       <c r="B109" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109" t="s">
+        <v>13</v>
+      </c>
+      <c r="K109" t="s">
+        <v>15</v>
+      </c>
+      <c r="L109" t="s">
+        <v>16</v>
+      </c>
+      <c r="M109" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N109" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>504</v>
       </c>
       <c r="B110" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110" t="s">
+        <v>13</v>
+      </c>
+      <c r="K110" t="s">
+        <v>15</v>
+      </c>
+      <c r="L110" t="s">
+        <v>16</v>
+      </c>
+      <c r="M110" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N110" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>504</v>
       </c>
       <c r="B111" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111" t="s">
+        <v>13</v>
+      </c>
+      <c r="K111" t="s">
+        <v>15</v>
+      </c>
+      <c r="L111" t="s">
+        <v>16</v>
+      </c>
+      <c r="M111" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N111" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>504</v>
       </c>
       <c r="B112" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" t="s">
+        <v>13</v>
+      </c>
+      <c r="K112" t="s">
+        <v>15</v>
+      </c>
+      <c r="L112" t="s">
+        <v>16</v>
+      </c>
+      <c r="M112" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N112" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>504</v>
       </c>
       <c r="B113" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+      <c r="J113" t="s">
+        <v>13</v>
+      </c>
+      <c r="K113" t="s">
+        <v>15</v>
+      </c>
+      <c r="L113" t="s">
+        <v>16</v>
+      </c>
+      <c r="M113" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N113" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>504</v>
       </c>
       <c r="B114" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+      <c r="J114" t="s">
+        <v>13</v>
+      </c>
+      <c r="K114" t="s">
+        <v>15</v>
+      </c>
+      <c r="L114" t="s">
+        <v>16</v>
+      </c>
+      <c r="M114" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N114" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>504</v>
       </c>
       <c r="B115" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" t="s">
+        <v>18</v>
+      </c>
+      <c r="J115" t="s">
+        <v>13</v>
+      </c>
+      <c r="K115" t="s">
+        <v>219</v>
+      </c>
+      <c r="L115" t="s">
+        <v>16</v>
+      </c>
+      <c r="M115" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N115" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>504</v>
       </c>
       <c r="B116" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" t="s">
+        <v>18</v>
+      </c>
+      <c r="J116" t="s">
+        <v>13</v>
+      </c>
+      <c r="K116" t="s">
+        <v>15</v>
+      </c>
+      <c r="L116" t="s">
+        <v>16</v>
+      </c>
+      <c r="M116" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N116" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>507</v>
       </c>
       <c r="B117" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
+      <c r="H117" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" t="s">
+        <v>13</v>
+      </c>
+      <c r="J117" t="s">
+        <v>13</v>
+      </c>
+      <c r="K117" t="s">
+        <v>15</v>
+      </c>
+      <c r="L117" t="s">
+        <v>16</v>
+      </c>
+      <c r="M117" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N117" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>507</v>
       </c>
       <c r="B118" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118" t="s">
+        <v>13</v>
+      </c>
+      <c r="K118" t="s">
+        <v>15</v>
+      </c>
+      <c r="L118" t="s">
+        <v>16</v>
+      </c>
+      <c r="M118" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N118" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>532</v>
       </c>
       <c r="B119" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119" t="s">
+        <v>13</v>
+      </c>
+      <c r="K119" t="s">
+        <v>15</v>
+      </c>
+      <c r="L119" t="s">
+        <v>16</v>
+      </c>
+      <c r="M119" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>535</v>
       </c>
       <c r="B120" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" t="s">
+        <v>13</v>
+      </c>
+      <c r="J120" t="s">
+        <v>13</v>
+      </c>
+      <c r="K120" t="s">
+        <v>15</v>
+      </c>
+      <c r="L120" t="s">
+        <v>16</v>
+      </c>
+      <c r="M120" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>536</v>
       </c>
       <c r="B121" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" t="s">
+        <v>219</v>
+      </c>
+      <c r="L121" t="s">
+        <v>16</v>
+      </c>
+      <c r="M121" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N121" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>536</v>
       </c>
       <c r="B122" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" t="s">
+        <v>13</v>
+      </c>
+      <c r="K122" t="s">
+        <v>15</v>
+      </c>
+      <c r="L122" t="s">
+        <v>16</v>
+      </c>
+      <c r="M122" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N122" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>536</v>
       </c>
       <c r="B123" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+      <c r="J123" t="s">
+        <v>13</v>
+      </c>
+      <c r="K123" t="s">
+        <v>15</v>
+      </c>
+      <c r="L123" t="s">
+        <v>16</v>
+      </c>
+      <c r="M123" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N123" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>539</v>
       </c>
       <c r="B124" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" t="s">
+        <v>13</v>
+      </c>
+      <c r="K124" t="s">
+        <v>15</v>
+      </c>
+      <c r="L124" t="s">
+        <v>16</v>
+      </c>
+      <c r="M124" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N124" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>539</v>
       </c>
       <c r="B125" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125" t="s">
+        <v>13</v>
+      </c>
+      <c r="K125" t="s">
+        <v>15</v>
+      </c>
+      <c r="L125" t="s">
+        <v>16</v>
+      </c>
+      <c r="M125" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N125" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>539</v>
       </c>
       <c r="B126" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" t="s">
+        <v>13</v>
+      </c>
+      <c r="K126" t="s">
+        <v>15</v>
+      </c>
+      <c r="L126" t="s">
+        <v>16</v>
+      </c>
+      <c r="M126" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>539</v>
       </c>
       <c r="B127" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" t="s">
+        <v>13</v>
+      </c>
+      <c r="K127" t="s">
+        <v>15</v>
+      </c>
+      <c r="L127" t="s">
+        <v>16</v>
+      </c>
+      <c r="M127" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N127" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>539</v>
       </c>
       <c r="B128" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+      <c r="J128" t="s">
+        <v>13</v>
+      </c>
+      <c r="K128" t="s">
+        <v>15</v>
+      </c>
+      <c r="L128" t="s">
+        <v>16</v>
+      </c>
+      <c r="M128" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N128" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>539</v>
       </c>
       <c r="B129" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
+      <c r="H129" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" t="s">
+        <v>13</v>
+      </c>
+      <c r="K129" t="s">
+        <v>15</v>
+      </c>
+      <c r="L129" t="s">
+        <v>16</v>
+      </c>
+      <c r="M129" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N129" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>540</v>
       </c>
       <c r="B130" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" t="s">
+        <v>13</v>
+      </c>
+      <c r="J130" t="s">
+        <v>13</v>
+      </c>
+      <c r="K130" t="s">
+        <v>15</v>
+      </c>
+      <c r="L130" t="s">
+        <v>16</v>
+      </c>
+      <c r="M130" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N130" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>540</v>
       </c>
       <c r="B131" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>13</v>
+      </c>
+      <c r="J131" t="s">
+        <v>13</v>
+      </c>
+      <c r="K131" t="s">
+        <v>15</v>
+      </c>
+      <c r="L131" t="s">
+        <v>16</v>
+      </c>
+      <c r="M131" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N131" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>540</v>
       </c>
       <c r="B132" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" t="s">
+        <v>13</v>
+      </c>
+      <c r="J132" t="s">
+        <v>13</v>
+      </c>
+      <c r="K132" t="s">
+        <v>15</v>
+      </c>
+      <c r="L132" t="s">
+        <v>16</v>
+      </c>
+      <c r="M132" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>540</v>
       </c>
       <c r="B133" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" t="s">
+        <v>13</v>
+      </c>
+      <c r="J133" t="s">
+        <v>13</v>
+      </c>
+      <c r="K133" t="s">
+        <v>15</v>
+      </c>
+      <c r="L133" t="s">
+        <v>16</v>
+      </c>
+      <c r="M133" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N133" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>540</v>
       </c>
       <c r="B134" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" t="s">
+        <v>13</v>
+      </c>
+      <c r="J134" t="s">
+        <v>13</v>
+      </c>
+      <c r="K134" t="s">
+        <v>15</v>
+      </c>
+      <c r="L134" t="s">
+        <v>16</v>
+      </c>
+      <c r="M134" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>543</v>
       </c>
       <c r="B135" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" t="s">
+        <v>13</v>
+      </c>
+      <c r="J135" t="s">
+        <v>13</v>
+      </c>
+      <c r="K135" t="s">
+        <v>15</v>
+      </c>
+      <c r="L135" t="s">
+        <v>16</v>
+      </c>
+      <c r="M135" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N135" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>548</v>
       </c>
       <c r="B136" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" t="s">
+        <v>13</v>
+      </c>
+      <c r="J136" t="s">
+        <v>13</v>
+      </c>
+      <c r="K136" t="s">
+        <v>15</v>
+      </c>
+      <c r="L136" t="s">
+        <v>16</v>
+      </c>
+      <c r="M136" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N136" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>554</v>
       </c>
       <c r="B137" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" t="s">
+        <v>13</v>
+      </c>
+      <c r="J137" t="s">
+        <v>13</v>
+      </c>
+      <c r="K137" t="s">
+        <v>219</v>
+      </c>
+      <c r="L137" t="s">
+        <v>16</v>
+      </c>
+      <c r="M137" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N137" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>556</v>
       </c>
       <c r="B138" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" t="s">
+        <v>13</v>
+      </c>
+      <c r="J138" t="s">
+        <v>13</v>
+      </c>
+      <c r="K138" t="s">
+        <v>219</v>
+      </c>
+      <c r="L138" t="s">
+        <v>16</v>
+      </c>
+      <c r="M138" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N138" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>558</v>
       </c>
       <c r="B139" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" t="s">
+        <v>13</v>
+      </c>
+      <c r="J139" t="s">
+        <v>13</v>
+      </c>
+      <c r="K139" t="s">
+        <v>15</v>
+      </c>
+      <c r="L139" t="s">
+        <v>16</v>
+      </c>
+      <c r="M139" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>559</v>
       </c>
       <c r="B140" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" t="s">
+        <v>13</v>
+      </c>
+      <c r="J140" t="s">
+        <v>13</v>
+      </c>
+      <c r="K140" t="s">
+        <v>15</v>
+      </c>
+      <c r="L140" t="s">
+        <v>16</v>
+      </c>
+      <c r="M140" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>565</v>
       </c>
       <c r="B141" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
+      <c r="H141" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" t="s">
+        <v>13</v>
+      </c>
+      <c r="J141" t="s">
+        <v>13</v>
+      </c>
+      <c r="K141" t="s">
+        <v>15</v>
+      </c>
+      <c r="L141" t="s">
+        <v>16</v>
+      </c>
+      <c r="M141" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N141" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>566</v>
       </c>
       <c r="B142" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" t="s">
+        <v>13</v>
+      </c>
+      <c r="J142" t="s">
+        <v>13</v>
+      </c>
+      <c r="K142" t="s">
+        <v>15</v>
+      </c>
+      <c r="L142" t="s">
+        <v>16</v>
+      </c>
+      <c r="M142" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N142" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>567</v>
       </c>
       <c r="B143" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" t="s">
+        <v>13</v>
+      </c>
+      <c r="J143" t="s">
+        <v>13</v>
+      </c>
+      <c r="K143" t="s">
+        <v>15</v>
+      </c>
+      <c r="L143" t="s">
+        <v>16</v>
+      </c>
+      <c r="M143" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>568</v>
       </c>
       <c r="B144" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" t="s">
+        <v>13</v>
+      </c>
+      <c r="I144" t="s">
+        <v>13</v>
+      </c>
+      <c r="J144" t="s">
+        <v>13</v>
+      </c>
+      <c r="K144" t="s">
+        <v>15</v>
+      </c>
+      <c r="L144" t="s">
+        <v>16</v>
+      </c>
+      <c r="M144" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N144" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>572</v>
       </c>
       <c r="B145" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
+      <c r="H145" t="s">
+        <v>13</v>
+      </c>
+      <c r="I145" t="s">
+        <v>13</v>
+      </c>
+      <c r="J145" t="s">
+        <v>13</v>
+      </c>
+      <c r="K145" t="s">
+        <v>15</v>
+      </c>
+      <c r="L145" t="s">
+        <v>16</v>
+      </c>
+      <c r="M145" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>574</v>
       </c>
       <c r="B146" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" t="s">
+        <v>13</v>
+      </c>
+      <c r="I146" t="s">
+        <v>13</v>
+      </c>
+      <c r="J146" t="s">
+        <v>13</v>
+      </c>
+      <c r="K146" t="s">
+        <v>15</v>
+      </c>
+      <c r="L146" t="s">
+        <v>16</v>
+      </c>
+      <c r="M146" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N146" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>576</v>
       </c>
       <c r="B147" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" t="s">
+        <v>13</v>
+      </c>
+      <c r="J147" t="s">
+        <v>13</v>
+      </c>
+      <c r="K147" t="s">
+        <v>15</v>
+      </c>
+      <c r="L147" t="s">
+        <v>16</v>
+      </c>
+      <c r="M147" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N147" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>578</v>
       </c>
       <c r="B148" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" t="s">
+        <v>13</v>
+      </c>
+      <c r="J148" t="s">
+        <v>13</v>
+      </c>
+      <c r="K148" t="s">
+        <v>15</v>
+      </c>
+      <c r="L148" t="s">
+        <v>16</v>
+      </c>
+      <c r="M148" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N148" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>579</v>
       </c>
       <c r="B149" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
+      <c r="H149" t="s">
+        <v>13</v>
+      </c>
+      <c r="I149" t="s">
+        <v>13</v>
+      </c>
+      <c r="J149" t="s">
+        <v>13</v>
+      </c>
+      <c r="K149" t="s">
+        <v>15</v>
+      </c>
+      <c r="L149" t="s">
+        <v>16</v>
+      </c>
+      <c r="M149" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>582</v>
       </c>
       <c r="B150" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s">
+        <v>13</v>
+      </c>
+      <c r="H150" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" t="s">
+        <v>13</v>
+      </c>
+      <c r="J150" t="s">
+        <v>13</v>
+      </c>
+      <c r="K150" t="s">
+        <v>15</v>
+      </c>
+      <c r="L150" t="s">
+        <v>16</v>
+      </c>
+      <c r="M150" s="2">
+        <v>45789</v>
+      </c>
+      <c r="N150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>583</v>
       </c>
@@ -5622,7 +8310,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>583</v>
       </c>
@@ -5630,7 +8318,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>583</v>
       </c>
@@ -5638,7 +8326,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>583</v>
       </c>
@@ -5646,7 +8334,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>583</v>
       </c>
@@ -5654,7 +8342,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>583</v>
       </c>
@@ -5662,7 +8350,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>583</v>
       </c>
@@ -5670,7 +8358,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>583</v>
       </c>
@@ -5678,7 +8366,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>583</v>
       </c>
@@ -5686,7 +8374,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>583</v>
       </c>
@@ -5981,6 +8669,9 @@
       <c r="B196" t="s">
         <v>217</v>
       </c>
+    </row>
+    <row r="1048576" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M1048576" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input/raw_data/bias_assessment/case_report_bias_data_end.xlsx
+++ b/input/raw_data/bias_assessment/case_report_bias_data_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bias_assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{258A8366-0577-6F40-8705-2966E626FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{47AC506B-5E48-E741-9892-D1B3E9CD8E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20580" windowHeight="12240" xr2:uid="{0EC282F7-924A-5B47-8692-5C057716A3B4}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="279">
   <si>
     <t>Study_ID</t>
   </si>
@@ -821,6 +821,42 @@
   </si>
   <si>
     <t>Lacking detail on physilogical and laboratory findings, but contains all data relevant to this study (apart from motivation).</t>
+  </si>
+  <si>
+    <t>Difficult to obtain individual medical history from case.</t>
+  </si>
+  <si>
+    <t>Demographic history lacking, but pertinent.</t>
+  </si>
+  <si>
+    <t>Lacks detail of post intervention outcome.</t>
+  </si>
+  <si>
+    <t>Lacking details on physical assessment, but other pertinent information contained within case report.</t>
+  </si>
+  <si>
+    <t>Assessment and condition not well described, but contains all information pertinent to this study.</t>
+  </si>
+  <si>
+    <t>Post intervention outcome not well described.</t>
+  </si>
+  <si>
+    <t>Post-intervention status not well documented, but no complications mentioned.</t>
+  </si>
+  <si>
+    <t>Doesn't elaborate on 'known psychiatric illness'.</t>
+  </si>
+  <si>
+    <t>Lacks detailed history and examination findings.</t>
+  </si>
+  <si>
+    <t>Lacks detail on physical assessment.</t>
+  </si>
+  <si>
+    <t>Lacks detail on outcome, but appears to be well as was hence admitted to psychiatry.</t>
+  </si>
+  <si>
+    <t>Diagnostics and physical assessment not well described, nor is surgical course or lessons learnt, but information relevant to this review contained.</t>
   </si>
 </sst>
 </file>
@@ -1688,8 +1724,8 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N151" sqref="N151"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N197" sqref="N197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8309,6 +8345,42 @@
       <c r="B151" t="s">
         <v>172</v>
       </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151" t="s">
+        <v>13</v>
+      </c>
+      <c r="J151" t="s">
+        <v>13</v>
+      </c>
+      <c r="K151" t="s">
+        <v>15</v>
+      </c>
+      <c r="L151" t="s">
+        <v>16</v>
+      </c>
+      <c r="M151" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N151" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152">
@@ -8317,6 +8389,42 @@
       <c r="B152" t="s">
         <v>173</v>
       </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" t="s">
+        <v>13</v>
+      </c>
+      <c r="J152" t="s">
+        <v>13</v>
+      </c>
+      <c r="K152" t="s">
+        <v>15</v>
+      </c>
+      <c r="L152" t="s">
+        <v>16</v>
+      </c>
+      <c r="M152" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N152" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153">
@@ -8325,6 +8433,42 @@
       <c r="B153" t="s">
         <v>174</v>
       </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" t="s">
+        <v>13</v>
+      </c>
+      <c r="J153" t="s">
+        <v>13</v>
+      </c>
+      <c r="K153" t="s">
+        <v>15</v>
+      </c>
+      <c r="L153" t="s">
+        <v>16</v>
+      </c>
+      <c r="M153" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N153" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154">
@@ -8333,6 +8477,42 @@
       <c r="B154" t="s">
         <v>175</v>
       </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" t="s">
+        <v>13</v>
+      </c>
+      <c r="I154" t="s">
+        <v>13</v>
+      </c>
+      <c r="J154" t="s">
+        <v>13</v>
+      </c>
+      <c r="K154" t="s">
+        <v>15</v>
+      </c>
+      <c r="L154" t="s">
+        <v>16</v>
+      </c>
+      <c r="M154" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N154" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155">
@@ -8341,6 +8521,42 @@
       <c r="B155" t="s">
         <v>176</v>
       </c>
+      <c r="C155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" t="s">
+        <v>13</v>
+      </c>
+      <c r="I155" t="s">
+        <v>13</v>
+      </c>
+      <c r="J155" t="s">
+        <v>13</v>
+      </c>
+      <c r="K155" t="s">
+        <v>15</v>
+      </c>
+      <c r="L155" t="s">
+        <v>16</v>
+      </c>
+      <c r="M155" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N155" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156">
@@ -8349,6 +8565,42 @@
       <c r="B156" t="s">
         <v>177</v>
       </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" t="s">
+        <v>13</v>
+      </c>
+      <c r="J156" t="s">
+        <v>13</v>
+      </c>
+      <c r="K156" t="s">
+        <v>15</v>
+      </c>
+      <c r="L156" t="s">
+        <v>16</v>
+      </c>
+      <c r="M156" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N156" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
@@ -8357,6 +8609,42 @@
       <c r="B157" t="s">
         <v>178</v>
       </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" t="s">
+        <v>13</v>
+      </c>
+      <c r="I157" t="s">
+        <v>13</v>
+      </c>
+      <c r="J157" t="s">
+        <v>13</v>
+      </c>
+      <c r="K157" t="s">
+        <v>15</v>
+      </c>
+      <c r="L157" t="s">
+        <v>16</v>
+      </c>
+      <c r="M157" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N157" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
@@ -8365,6 +8653,42 @@
       <c r="B158" t="s">
         <v>179</v>
       </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" t="s">
+        <v>13</v>
+      </c>
+      <c r="I158" t="s">
+        <v>13</v>
+      </c>
+      <c r="J158" t="s">
+        <v>13</v>
+      </c>
+      <c r="K158" t="s">
+        <v>15</v>
+      </c>
+      <c r="L158" t="s">
+        <v>16</v>
+      </c>
+      <c r="M158" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N158" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
@@ -8373,6 +8697,42 @@
       <c r="B159" t="s">
         <v>180</v>
       </c>
+      <c r="C159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
+      </c>
+      <c r="I159" t="s">
+        <v>13</v>
+      </c>
+      <c r="J159" t="s">
+        <v>13</v>
+      </c>
+      <c r="K159" t="s">
+        <v>15</v>
+      </c>
+      <c r="L159" t="s">
+        <v>16</v>
+      </c>
+      <c r="M159" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N159" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
@@ -8381,293 +8741,1625 @@
       <c r="B160" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" t="s">
+        <v>13</v>
+      </c>
+      <c r="I160" t="s">
+        <v>13</v>
+      </c>
+      <c r="J160" t="s">
+        <v>13</v>
+      </c>
+      <c r="K160" t="s">
+        <v>15</v>
+      </c>
+      <c r="L160" t="s">
+        <v>16</v>
+      </c>
+      <c r="M160" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N160" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>583</v>
       </c>
       <c r="B161" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" t="s">
+        <v>13</v>
+      </c>
+      <c r="J161" t="s">
+        <v>13</v>
+      </c>
+      <c r="K161" t="s">
+        <v>15</v>
+      </c>
+      <c r="L161" t="s">
+        <v>16</v>
+      </c>
+      <c r="M161" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N161" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>586</v>
       </c>
       <c r="B162" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" t="s">
+        <v>13</v>
+      </c>
+      <c r="J162" t="s">
+        <v>13</v>
+      </c>
+      <c r="K162" t="s">
+        <v>15</v>
+      </c>
+      <c r="L162" t="s">
+        <v>16</v>
+      </c>
+      <c r="M162" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N162" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>589</v>
       </c>
       <c r="B163" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" t="s">
+        <v>13</v>
+      </c>
+      <c r="J163" t="s">
+        <v>13</v>
+      </c>
+      <c r="K163" t="s">
+        <v>219</v>
+      </c>
+      <c r="L163" t="s">
+        <v>16</v>
+      </c>
+      <c r="M163" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N163" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>592</v>
       </c>
       <c r="B164" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" t="s">
+        <v>13</v>
+      </c>
+      <c r="I164" t="s">
+        <v>13</v>
+      </c>
+      <c r="J164" t="s">
+        <v>13</v>
+      </c>
+      <c r="K164" t="s">
+        <v>15</v>
+      </c>
+      <c r="L164" t="s">
+        <v>16</v>
+      </c>
+      <c r="M164" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>593</v>
       </c>
       <c r="B165" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" t="s">
+        <v>13</v>
+      </c>
+      <c r="I165" t="s">
+        <v>13</v>
+      </c>
+      <c r="J165" t="s">
+        <v>13</v>
+      </c>
+      <c r="K165" t="s">
+        <v>15</v>
+      </c>
+      <c r="L165" t="s">
+        <v>16</v>
+      </c>
+      <c r="M165" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N165" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>594</v>
       </c>
       <c r="B166" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" t="s">
+        <v>13</v>
+      </c>
+      <c r="I166" t="s">
+        <v>14</v>
+      </c>
+      <c r="J166" t="s">
+        <v>13</v>
+      </c>
+      <c r="K166" t="s">
+        <v>15</v>
+      </c>
+      <c r="L166" t="s">
+        <v>16</v>
+      </c>
+      <c r="M166" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N166" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>597</v>
       </c>
       <c r="B167" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>13</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" t="s">
+        <v>13</v>
+      </c>
+      <c r="I167" t="s">
+        <v>13</v>
+      </c>
+      <c r="J167" t="s">
+        <v>13</v>
+      </c>
+      <c r="K167" t="s">
+        <v>15</v>
+      </c>
+      <c r="L167" t="s">
+        <v>16</v>
+      </c>
+      <c r="M167" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N167" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>598</v>
       </c>
       <c r="B168" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
+      <c r="H168" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" t="s">
+        <v>13</v>
+      </c>
+      <c r="J168" t="s">
+        <v>13</v>
+      </c>
+      <c r="K168" t="s">
+        <v>15</v>
+      </c>
+      <c r="L168" t="s">
+        <v>16</v>
+      </c>
+      <c r="M168" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N168" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>602</v>
       </c>
       <c r="B169" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+      <c r="I169" t="s">
+        <v>14</v>
+      </c>
+      <c r="J169" t="s">
+        <v>13</v>
+      </c>
+      <c r="K169" t="s">
+        <v>15</v>
+      </c>
+      <c r="L169" t="s">
+        <v>16</v>
+      </c>
+      <c r="M169" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N169" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>604</v>
       </c>
       <c r="B170" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" t="s">
+        <v>13</v>
+      </c>
+      <c r="J170" t="s">
+        <v>13</v>
+      </c>
+      <c r="K170" t="s">
+        <v>15</v>
+      </c>
+      <c r="L170" t="s">
+        <v>16</v>
+      </c>
+      <c r="M170" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N170" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>610</v>
       </c>
       <c r="B171" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" t="s">
+        <v>14</v>
+      </c>
+      <c r="J171" t="s">
+        <v>13</v>
+      </c>
+      <c r="K171" t="s">
+        <v>15</v>
+      </c>
+      <c r="L171" t="s">
+        <v>16</v>
+      </c>
+      <c r="M171" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N171" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>610</v>
       </c>
       <c r="B172" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" t="s">
+        <v>14</v>
+      </c>
+      <c r="J172" t="s">
+        <v>13</v>
+      </c>
+      <c r="K172" t="s">
+        <v>15</v>
+      </c>
+      <c r="L172" t="s">
+        <v>16</v>
+      </c>
+      <c r="M172" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N172" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>610</v>
       </c>
       <c r="B173" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" t="s">
+        <v>18</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" t="s">
+        <v>14</v>
+      </c>
+      <c r="J173" t="s">
+        <v>13</v>
+      </c>
+      <c r="K173" t="s">
+        <v>219</v>
+      </c>
+      <c r="L173" t="s">
+        <v>16</v>
+      </c>
+      <c r="M173" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N173" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>617</v>
       </c>
       <c r="B174" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" t="s">
+        <v>13</v>
+      </c>
+      <c r="I174" t="s">
+        <v>14</v>
+      </c>
+      <c r="J174" t="s">
+        <v>13</v>
+      </c>
+      <c r="K174" t="s">
+        <v>15</v>
+      </c>
+      <c r="L174" t="s">
+        <v>16</v>
+      </c>
+      <c r="M174" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N174" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>620</v>
       </c>
       <c r="B175" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" t="s">
+        <v>13</v>
+      </c>
+      <c r="I175" t="s">
+        <v>13</v>
+      </c>
+      <c r="J175" t="s">
+        <v>13</v>
+      </c>
+      <c r="K175" t="s">
+        <v>15</v>
+      </c>
+      <c r="L175" t="s">
+        <v>16</v>
+      </c>
+      <c r="M175" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>621</v>
       </c>
       <c r="B176" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" t="s">
+        <v>13</v>
+      </c>
+      <c r="I176" t="s">
+        <v>13</v>
+      </c>
+      <c r="J176" t="s">
+        <v>13</v>
+      </c>
+      <c r="K176" t="s">
+        <v>15</v>
+      </c>
+      <c r="L176" t="s">
+        <v>16</v>
+      </c>
+      <c r="M176" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N176" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>622</v>
       </c>
       <c r="B177" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" t="s">
+        <v>13</v>
+      </c>
+      <c r="I177" t="s">
+        <v>18</v>
+      </c>
+      <c r="J177" t="s">
+        <v>13</v>
+      </c>
+      <c r="K177" t="s">
+        <v>15</v>
+      </c>
+      <c r="L177" t="s">
+        <v>16</v>
+      </c>
+      <c r="M177" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N177" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>623</v>
       </c>
       <c r="B178" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" t="s">
+        <v>13</v>
+      </c>
+      <c r="I178" t="s">
+        <v>13</v>
+      </c>
+      <c r="J178" t="s">
+        <v>13</v>
+      </c>
+      <c r="K178" t="s">
+        <v>15</v>
+      </c>
+      <c r="L178" t="s">
+        <v>16</v>
+      </c>
+      <c r="M178" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N178" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>625</v>
       </c>
       <c r="B179" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s">
+        <v>13</v>
+      </c>
+      <c r="I179" t="s">
+        <v>14</v>
+      </c>
+      <c r="J179" t="s">
+        <v>13</v>
+      </c>
+      <c r="K179" t="s">
+        <v>15</v>
+      </c>
+      <c r="L179" t="s">
+        <v>16</v>
+      </c>
+      <c r="M179" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N179" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>626</v>
       </c>
       <c r="B180" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" t="s">
+        <v>13</v>
+      </c>
+      <c r="I180" t="s">
+        <v>13</v>
+      </c>
+      <c r="J180" t="s">
+        <v>13</v>
+      </c>
+      <c r="K180" t="s">
+        <v>15</v>
+      </c>
+      <c r="L180" t="s">
+        <v>16</v>
+      </c>
+      <c r="M180" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N180" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>637</v>
       </c>
       <c r="B181" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" t="s">
+        <v>13</v>
+      </c>
+      <c r="I181" t="s">
+        <v>13</v>
+      </c>
+      <c r="J181" t="s">
+        <v>13</v>
+      </c>
+      <c r="K181" t="s">
+        <v>15</v>
+      </c>
+      <c r="L181" t="s">
+        <v>16</v>
+      </c>
+      <c r="M181" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N181" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>640</v>
       </c>
       <c r="B182" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
+      <c r="H182" t="s">
+        <v>13</v>
+      </c>
+      <c r="I182" t="s">
+        <v>13</v>
+      </c>
+      <c r="J182" t="s">
+        <v>13</v>
+      </c>
+      <c r="K182" t="s">
+        <v>15</v>
+      </c>
+      <c r="L182" t="s">
+        <v>16</v>
+      </c>
+      <c r="M182" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N182" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>643</v>
       </c>
       <c r="B183" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s">
+        <v>13</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" t="s">
+        <v>13</v>
+      </c>
+      <c r="I183" t="s">
+        <v>18</v>
+      </c>
+      <c r="J183" t="s">
+        <v>13</v>
+      </c>
+      <c r="K183" t="s">
+        <v>15</v>
+      </c>
+      <c r="L183" t="s">
+        <v>16</v>
+      </c>
+      <c r="M183" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N183" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>644</v>
       </c>
       <c r="B184" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" t="s">
+        <v>13</v>
+      </c>
+      <c r="E184" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" t="s">
+        <v>13</v>
+      </c>
+      <c r="I184" t="s">
+        <v>13</v>
+      </c>
+      <c r="J184" t="s">
+        <v>13</v>
+      </c>
+      <c r="K184" t="s">
+        <v>15</v>
+      </c>
+      <c r="L184" t="s">
+        <v>16</v>
+      </c>
+      <c r="M184" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N184" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>651</v>
       </c>
       <c r="B185" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" t="s">
+        <v>13</v>
+      </c>
+      <c r="I185" t="s">
+        <v>14</v>
+      </c>
+      <c r="J185" t="s">
+        <v>13</v>
+      </c>
+      <c r="K185" t="s">
+        <v>15</v>
+      </c>
+      <c r="L185" t="s">
+        <v>16</v>
+      </c>
+      <c r="M185" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N185" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>652</v>
       </c>
       <c r="B186" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" t="s">
+        <v>13</v>
+      </c>
+      <c r="E186" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
+      <c r="H186" t="s">
+        <v>13</v>
+      </c>
+      <c r="I186" t="s">
+        <v>13</v>
+      </c>
+      <c r="J186" t="s">
+        <v>13</v>
+      </c>
+      <c r="K186" t="s">
+        <v>15</v>
+      </c>
+      <c r="L186" t="s">
+        <v>16</v>
+      </c>
+      <c r="M186" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N186" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>654</v>
       </c>
       <c r="B187" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" t="s">
+        <v>13</v>
+      </c>
+      <c r="I187" t="s">
+        <v>13</v>
+      </c>
+      <c r="J187" t="s">
+        <v>13</v>
+      </c>
+      <c r="K187" t="s">
+        <v>15</v>
+      </c>
+      <c r="L187" t="s">
+        <v>16</v>
+      </c>
+      <c r="M187" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N187" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>658</v>
       </c>
       <c r="B188" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
+      <c r="H188" t="s">
+        <v>13</v>
+      </c>
+      <c r="I188" t="s">
+        <v>14</v>
+      </c>
+      <c r="J188" t="s">
+        <v>18</v>
+      </c>
+      <c r="K188" t="s">
+        <v>15</v>
+      </c>
+      <c r="L188" t="s">
+        <v>16</v>
+      </c>
+      <c r="M188" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N188" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>661</v>
       </c>
       <c r="B189" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" t="s">
+        <v>13</v>
+      </c>
+      <c r="E189" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" t="s">
+        <v>13</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" t="s">
+        <v>13</v>
+      </c>
+      <c r="I189" t="s">
+        <v>13</v>
+      </c>
+      <c r="J189" t="s">
+        <v>13</v>
+      </c>
+      <c r="K189" t="s">
+        <v>15</v>
+      </c>
+      <c r="L189" t="s">
+        <v>16</v>
+      </c>
+      <c r="M189" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N189" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>667</v>
       </c>
       <c r="B190" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" t="s">
+        <v>13</v>
+      </c>
+      <c r="I190" t="s">
+        <v>14</v>
+      </c>
+      <c r="J190" t="s">
+        <v>13</v>
+      </c>
+      <c r="K190" t="s">
+        <v>15</v>
+      </c>
+      <c r="L190" t="s">
+        <v>16</v>
+      </c>
+      <c r="M190" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N190" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>675</v>
       </c>
       <c r="B191" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" t="s">
+        <v>13</v>
+      </c>
+      <c r="I191" t="s">
+        <v>14</v>
+      </c>
+      <c r="J191" t="s">
+        <v>13</v>
+      </c>
+      <c r="K191" t="s">
+        <v>15</v>
+      </c>
+      <c r="L191" t="s">
+        <v>16</v>
+      </c>
+      <c r="M191" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N191" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>680</v>
       </c>
       <c r="B192" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" t="s">
+        <v>13</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" t="s">
+        <v>13</v>
+      </c>
+      <c r="I192" t="s">
+        <v>14</v>
+      </c>
+      <c r="J192" t="s">
+        <v>13</v>
+      </c>
+      <c r="K192" t="s">
+        <v>15</v>
+      </c>
+      <c r="L192" t="s">
+        <v>16</v>
+      </c>
+      <c r="M192" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N192" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>683</v>
       </c>
       <c r="B193" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" t="s">
+        <v>13</v>
+      </c>
+      <c r="I193" t="s">
+        <v>13</v>
+      </c>
+      <c r="J193" t="s">
+        <v>13</v>
+      </c>
+      <c r="K193" t="s">
+        <v>15</v>
+      </c>
+      <c r="L193" t="s">
+        <v>16</v>
+      </c>
+      <c r="M193" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N193" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>684</v>
       </c>
       <c r="B194" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
+        <v>13</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
+      <c r="H194" t="s">
+        <v>13</v>
+      </c>
+      <c r="I194" t="s">
+        <v>14</v>
+      </c>
+      <c r="J194" t="s">
+        <v>13</v>
+      </c>
+      <c r="K194" t="s">
+        <v>15</v>
+      </c>
+      <c r="L194" t="s">
+        <v>16</v>
+      </c>
+      <c r="M194" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N194" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>686</v>
       </c>
       <c r="B195" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>13</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
+      <c r="H195" t="s">
+        <v>13</v>
+      </c>
+      <c r="I195" t="s">
+        <v>14</v>
+      </c>
+      <c r="J195" t="s">
+        <v>13</v>
+      </c>
+      <c r="K195" t="s">
+        <v>15</v>
+      </c>
+      <c r="L195" t="s">
+        <v>16</v>
+      </c>
+      <c r="M195" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N195" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>692</v>
       </c>
       <c r="B196" t="s">
         <v>217</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" t="s">
+        <v>13</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
+      <c r="H196" t="s">
+        <v>13</v>
+      </c>
+      <c r="I196" t="s">
+        <v>14</v>
+      </c>
+      <c r="J196" t="s">
+        <v>13</v>
+      </c>
+      <c r="K196" t="s">
+        <v>15</v>
+      </c>
+      <c r="L196" t="s">
+        <v>16</v>
+      </c>
+      <c r="M196" s="2">
+        <v>45790</v>
+      </c>
+      <c r="N196" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="1048576" spans="13:13" x14ac:dyDescent="0.2">

--- a/input/raw_data/bias_assessment/case_report_bias_data_end.xlsx
+++ b/input/raw_data/bias_assessment/case_report_bias_data_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bias_assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{47AC506B-5E48-E741-9892-D1B3E9CD8E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{08C627C4-6A30-F64D-921F-7471990BCD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20580" windowHeight="12240" xr2:uid="{0EC282F7-924A-5B47-8692-5C057716A3B4}"/>
   </bookViews>
@@ -1724,8 +1724,8 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N197" sqref="N197"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input/raw_data/bias_assessment/case_report_bias_data_end.xlsx
+++ b/input/raw_data/bias_assessment/case_report_bias_data_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bias_assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{08C627C4-6A30-F64D-921F-7471990BCD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0284D0BF-F37C-9943-BA95-BE4E58A20924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="880" windowWidth="20580" windowHeight="12240" xr2:uid="{0EC282F7-924A-5B47-8692-5C057716A3B4}"/>
   </bookViews>
@@ -1724,8 +1724,8 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:L1"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
